--- a/Documentation/entity_system/entity_system_BOM.xlsx
+++ b/Documentation/entity_system/entity_system_BOM.xlsx
@@ -776,6 +776,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1687,8 +1690,8 @@
     <hyperlink ref="G18" r:id="rId56"/>
     <hyperlink ref="G19" r:id="rId57"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId58"/>
   <tableParts count="1">
     <tablePart r:id="rId59"/>
   </tableParts>
